--- a/medicine/Enfance/Olivier_Thiébaut/Olivier_Thiébaut.xlsx
+++ b/medicine/Enfance/Olivier_Thiébaut/Olivier_Thiébaut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Olivier_Thi%C3%A9baut</t>
+          <t>Olivier_Thiébaut</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Olivier Thiébaut, né le 21 septembre 1963 à Cherbourg[1], est un écrivain et illustrateur français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Olivier Thiébaut, né le 21 septembre 1963 à Cherbourg, est un écrivain et illustrateur français.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Olivier_Thi%C3%A9baut</t>
+          <t>Olivier_Thiébaut</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après une formation de relieur et des études, entre 1985 et 1987, à l'École Régionale des Beaux-Arts de Caen où il obtient une licence de cinéma, il se lance dans la réalisation d’affiches, de décors de théâtre et de cinéma, et travaille comme scénariste à la télévision. Il commence à publier en 1993.
-Il publie son 20e livre en 2019[2].
+Il publie son 20e livre en 2019.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Olivier_Thi%C3%A9baut</t>
+          <t>Olivier_Thiébaut</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Engagement politique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2012, il soutient Jean-Luc Mélenchon, candidat du Front de gauche à l'élection présidentielle[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2012, il soutient Jean-Luc Mélenchon, candidat du Front de gauche à l'élection présidentielle.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Olivier_Thi%C3%A9baut</t>
+          <t>Olivier_Thiébaut</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,17 +592,90 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Romans policiers
-Enquête d’un père, éd. Après la Lune, coll. Lunes Blafardes, 2006 ;
+          <t>Romans policiers</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Enquête d’un père, éd. Après la Lune, coll. Lunes Blafardes, 2006 ;
 L’un seul, éd. Lignes noires, 2000 ;
 J’irai revoir mon Cotentin, Éditions Baleine, coll. Tourisme et Polar, 1998 ;
 Les Pieds de la dame aux clebs, Éditions Baleine, coll. Le Poulpe, no 15, 1996 ;
 Larmes de fond, Éditions Baleine, coll. Instantanés de Polar, no 5, 1995 ;
-L’Enfant de cœur, Gallimard, coll. Série noire no 2392, 1993.
-Nouvelles
-Braquage à poules, Éditions Baleine, les 7 familles du polar, 2000 ;
-Ouvrages jeunesse
-Auteur
+L’Enfant de cœur, Gallimard, coll. Série noire no 2392, 1993.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Olivier_Thiébaut</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olivier_Thi%C3%A9baut</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Braquage à poules, Éditions Baleine, les 7 familles du polar, 2000 ;</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Olivier_Thiébaut</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olivier_Thi%C3%A9baut</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Ouvrages jeunesse</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Auteur
 À feu et à sang, Syros, coll. Souris noire, 1996 puis 2000, illustré par Lewis Trondheim ;
 Frères de sang, Syros, coll. Souris Noire, 1998 ;
 Illustrateur
@@ -594,9 +683,43 @@
 Viens, on va chercher un poème de Catherine Leblanc, éd. Sarbacane, 2008 ;
 Tiroirs secrets de M Xabi. En collaboration avec Xabi Molia. éd. Sarbacane, 2008 ;
 L’Invention des oiseaux à plumes de M. Xabi, éd. Sarbacane, 2008.
-Un rêve sans faim, texte de François David, Møtus, 2012
-Autres écrits
-bonjour aux promeneurs ! : sur les chemins de l'art brut…, Éditions Alternatives, 1996, avec des photographies de l'auteur.</t>
+Un rêve sans faim, texte de François David, Møtus, 2012</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Olivier_Thiébaut</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olivier_Thi%C3%A9baut</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Autres écrits</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>bonjour aux promeneurs ! : sur les chemins de l'art brut…, Éditions Alternatives, 1996, avec des photographies de l'auteur.</t>
         </is>
       </c>
     </row>
